--- a/Craworder/Vocabulary(2021-08-26).xlsx
+++ b/Craworder/Vocabulary(2021-08-26).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\gadgets\Craworder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1287D-A367-4B4E-9C0F-DB34B0261F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -778,12 +784,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -791,17 +797,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -831,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,12 +859,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -892,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,9 +957,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,6 +1009,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1133,20 +1202,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1158,21 +1229,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1184,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1198,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1212,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1226,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1240,7 +1311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1254,7 +1325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1266,21 +1337,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1294,35 +1365,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1336,7 +1407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1350,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1362,7 +1433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1376,7 +1447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1390,21 +1461,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1418,7 +1489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1432,7 +1503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1446,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1460,7 +1531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1472,7 +1543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1486,7 +1557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1500,7 +1571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1514,7 +1585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1528,7 +1599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1542,7 +1613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1556,7 +1627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1568,7 +1639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1582,7 +1653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1596,7 +1667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1610,7 +1681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1624,7 +1695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1638,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1652,7 +1723,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1666,7 +1737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1680,7 +1751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1694,7 +1765,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1708,7 +1779,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1722,21 +1793,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1748,7 +1819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1762,7 +1833,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1774,21 +1845,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1802,21 +1873,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1830,7 +1901,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1844,7 +1915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1858,21 +1929,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1886,7 +1957,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1900,7 +1971,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1914,7 +1985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1928,7 +1999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1942,7 +2013,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1956,7 +2027,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1970,7 +2041,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1984,7 +2055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1998,7 +2069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2012,7 +2083,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2026,7 +2097,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2040,7 +2111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2054,7 +2125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2068,7 +2139,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2082,7 +2153,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2096,7 +2167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2110,7 +2181,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2124,7 +2195,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2138,7 +2209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2152,7 +2223,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2166,7 +2237,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2180,21 +2251,21 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2208,7 +2279,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2222,7 +2293,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2236,7 +2307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2250,7 +2321,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2264,7 +2335,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2278,7 +2349,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2292,21 +2363,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2320,7 +2391,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2334,7 +2405,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2349,7 +2420,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CCreated at &amp;D &amp;T</oddHeader>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
